--- a/Effetto Zeeman/results_Zeeman/zeeman.xlsx
+++ b/Effetto Zeeman/results_Zeeman/zeeman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\LAB2020\spectroscopy-lab\Effetto Zeeman\results_Zeeman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ECE54B-6A12-4FCC-A05E-EB6B52618AA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2645BF-EB3D-40DE-8536-EE9AAC123510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>lambda</t>
   </si>
@@ -42,9 +42,6 @@
     <t>n3</t>
   </si>
   <si>
-    <t>pezzo 1</t>
-  </si>
-  <si>
     <t>media n</t>
   </si>
   <si>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>der lambda</t>
+  </si>
+  <si>
+    <t>delta lambda r.u.</t>
+  </si>
+  <si>
+    <t>no fattore con n e seni</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,8 +223,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -261,13 +278,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -609,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -622,94 +641,104 @@
     <col min="4" max="4" width="12.1484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.84765625" customWidth="1"/>
     <col min="8" max="10" width="12.1484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="12.1484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1484375" customWidth="1"/>
-    <col min="21" max="21" width="14.6484375" customWidth="1"/>
-    <col min="24" max="24" width="12.1484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.3984375" customWidth="1"/>
+    <col min="13" max="13" width="11.6484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.6484375" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="12.1484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1484375" customWidth="1"/>
+    <col min="24" max="24" width="14.6484375" customWidth="1"/>
+    <col min="27" max="27" width="12.1484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <f>656.3*10^-9</f>
         <v>6.5629999999999997E-7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1">
         <f>H5*H6</f>
         <v>4.2104978107520897E-11</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3">
         <f>H1*10^9</f>
         <v>4.2104978107520896E-2</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1">
+        <f>H5</f>
+        <v>4.9362548991354466E-11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1">
+        <v>0.5</v>
+      </c>
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="O1">
-        <v>0.5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <f>589.3*10^-9</f>
         <v>5.8930000000000002E-7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <f>SQRT(H12^2*B5^2+H13^2*B18^2+H14^2*B15^2)*H1</f>
         <v>3.0399231013578914E-13</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3">
         <f>H2*10^9</f>
         <v>3.0399231013578912E-4</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2">
-        <f>2*O1/100</f>
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2">
+        <f>2*R1/100</f>
         <v>0.01</v>
       </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <f>486.1*10^-9</f>
         <v>4.861000000000001E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -718,61 +747,61 @@
         <v>5.8530000000000003E-7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <f>B4*10^9</f>
         <v>585.30000000000007</v>
       </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="4">
         <f>9.27400949*10^-24</f>
         <v>9.2740094900000003E-24</v>
       </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <f>B5*10^9</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <f>B4^2/(2*B7)</f>
         <v>4.9362548991354466E-11</v>
       </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5">
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.6">
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <f>SQRT(B14^2-1)/(B14^2-1-B14*B4*B17)</f>
         <v>0.85297414675436056</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -781,67 +810,70 @@
         <v>3.4700000000000004E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <f>585.3*10^-9</f>
         <v>5.8530000000000003E-7</v>
       </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <f>130*10^-3</f>
         <v>0.13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8">
         <f>6.62607015*10^-34</f>
         <v>6.6260701500000015E-34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <f>B8/(2*B7)</f>
         <v>18.731988472622476</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <f>B14^2-1-B14*B4*B17</f>
         <v>1.3310215191276265</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>299792458</v>
+      </c>
+      <c r="S9" t="s">
         <v>35</v>
       </c>
-      <c r="O9">
-        <v>299792458</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.6">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -849,7 +881,7 @@
         <v>1.5097</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -857,30 +889,30 @@
         <v>1.5115000000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <f>((2*B14^2/B4)-(2/B4)-3*B14*B17)/H9</f>
         <v>3471032.7492763842</v>
       </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12">
-        <f>X17-X14</f>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12">
+        <f>AA17-AA14</f>
         <v>1.7763013029783827E-11</v>
       </c>
-      <c r="P12" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12">
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12">
         <v>5222.6499999999996</v>
       </c>
-      <c r="S12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -888,187 +920,187 @@
         <v>1.5176000000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <f>(B14*B4)/H9</f>
         <v>6.6529343611242628E-7</v>
       </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13">
-        <f>SQRT(X15^2+X18^2)</f>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <f>SQRT(AA15^2+AA18^2)</f>
         <v>1.7249268544467233E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B11:B13)</f>
         <v>1.5129333333333335</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <f>(H6*(3*B14-2*B14^3+B4*B14^2*B17-B17*B4))</f>
         <v>-2.0668745308545509</v>
       </c>
-      <c r="R14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14">
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14">
         <v>5334.93</v>
       </c>
-      <c r="U14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14">
-        <f>S14/R12</f>
+      <c r="X14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <f>V14/U12</f>
         <v>1.0214986644711019</v>
       </c>
-      <c r="W14" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14">
-        <f>V14*10^-9</f>
+      <c r="Z14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14">
+        <f>Y14*10^-9</f>
         <v>1.0214986644711019E-9</v>
       </c>
-      <c r="Y14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="AB14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <f>_xlfn.STDEV.P(B11:B13)/SQRT(3)</f>
         <v>1.9518272540441791E-3</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15">
+        <f>(R12*R8*R9)/(2*R7^2)</f>
+        <v>5.1499892539926718E-24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15">
+        <v>0.45061000000000001</v>
+      </c>
+      <c r="X15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15">
+        <f>V15/U12</f>
+        <v>8.6279953663370135E-5</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15">
+        <f>Y15*10^-9</f>
+        <v>8.6279953663370138E-14</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.6">
+      <c r="Q16" t="s">
         <v>40</v>
       </c>
-      <c r="O15">
-        <f>(O12*O8*O9)/(2*O7^2)</f>
-        <v>5.1499892539926718E-24</v>
-      </c>
-      <c r="R15" t="s">
-        <v>47</v>
-      </c>
-      <c r="S15">
-        <v>0.45061000000000001</v>
-      </c>
-      <c r="U15" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15">
-        <f>S15/R12</f>
-        <v>8.6279953663370135E-5</v>
-      </c>
-      <c r="W15" t="s">
-        <v>9</v>
-      </c>
-      <c r="X15">
-        <f>V15*10^-9</f>
-        <v>8.6279953663370138E-14</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16">
-        <f>O17*O13</f>
+      <c r="R16">
+        <f>R17*R13</f>
         <v>5.0010405044622744E-26</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <f>-47491.02642</f>
         <v>-47491.026420000002</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17">
-        <f>(O9*O8)/(2*O7^2)</f>
+        <v>17</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17">
+        <f>(R9*R8)/(2*R7^2)</f>
         <v>2.8992768543025419E-13</v>
       </c>
-      <c r="R17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17">
+      <c r="U17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17">
         <v>5427.7</v>
       </c>
-      <c r="U17" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17">
-        <f>S17/R12</f>
+      <c r="X17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <f>V17/U12</f>
         <v>1.0392616775008856</v>
       </c>
-      <c r="W17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X17">
-        <f>V17*10^-9</f>
+      <c r="Z17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <f>Y17*10^-9</f>
         <v>1.0392616775008858E-9</v>
       </c>
-      <c r="Y17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="AB17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <f>B20*10^9</f>
         <v>9000</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18">
+        <v>17</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18">
         <v>0.78007400000000005</v>
       </c>
-      <c r="U18" t="s">
-        <v>50</v>
-      </c>
-      <c r="V18">
-        <f>S18/R12</f>
+      <c r="X18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18">
+        <f>V18/U12</f>
         <v>1.4936363723397128E-4</v>
       </c>
-      <c r="W18" t="s">
-        <v>9</v>
-      </c>
-      <c r="X18">
-        <f>V18*10^-9</f>
+      <c r="Z18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18">
+        <f>Y18*10^-9</f>
         <v>1.493636372339713E-13</v>
       </c>
-      <c r="Y18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="AB18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.6">
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <f>(B4*B9)/H1</f>
@@ -1079,26 +1111,26 @@
         <v>2.603927931046127</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19">
-        <f>O15/(O1*O4*O5)</f>
+        <v>27</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19">
+        <f>R15/(R1*R4*R5)</f>
         <v>1.110628420112318</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <f>9*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20">
         <f>(B9/H1)*SQRT(B5^2+(B4/H1)^2*H2^2)</f>
@@ -1109,28 +1141,28 @@
         <v>1.8800011370732079E-2</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20">
-        <f>O21*SQRT(O16^2+O15^2*(2/100)^2)</f>
+        <v>27</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20">
+        <f>R21*SQRT(R16^2+R15^2*(2/100)^2)</f>
         <v>2.4692425089519812E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21">
-        <f>1/(O5*O4*O1)</f>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.6">
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21">
+        <f>1/(R5*R4*R1)</f>
         <v>2.1565645389478678E+23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
